--- a/项目2(ing)-客户申请保单/关于Manual Life Insurance/抄学/加拿大游客计划比较表.xlsx
+++ b/项目2(ing)-客户申请保单/关于Manual Life Insurance/抄学/加拿大游客计划比较表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangshaohua/Desktop/我/工作/家中推荐/Lavie financial/项目1/Project/项目2(ing)-客户申请保单/关于Manual Life Insurance/抄学/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E265D3B-5352-C849-9865-C66F655744E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB251D2-C85B-A345-9EF4-5354DCA37940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" xr2:uid="{820D747A-B028-3443-A431-C21A6EFA7819}"/>
   </bookViews>
@@ -35,12 +35,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Manulife</t>
   </si>
   <si>
     <t>宏利旅游保险</t>
+  </si>
+  <si>
+    <t>加拿大游客计划比较表</t>
+  </si>
+  <si>
+    <t>2018年12月生效</t>
+  </si>
+  <si>
+    <t>好处总结</t>
+  </si>
+  <si>
+    <t>单程紧急医疗计划</t>
+  </si>
+  <si>
+    <t>紧急医疗</t>
+  </si>
+  <si>
+    <t>计划A-不承保在生效日期前 180 天接受治疗的原有医疗状况</t>
+  </si>
+  <si>
+    <t>B-计划-承保范围涵盖投保人在生效日期前180天稳定的原有医疗状况</t>
+  </si>
+  <si>
+    <t>1. 医院和医生服务
+2. 专业服务: 脊椎按摩师、整骨医生、针灸师、手足病医生、物理治疗师或足病医生
+3. 救护车接送
+4. 紧急牙科治疗
+5. 送人到您的床边
+6. 膳食、酒店、电话和出租车
+7. 遗体遣返
+8. 疏散之家
+9. 儿童回家
+10. 儿童保育
+11. 住院津贴
+12. 旅行休息
+13. 送回您的旅伴</t>
+  </si>
+  <si>
+    <t>1. 对于30天至85岁的游客，最高金额
+    - 被保险人: 最高15,000美元、25,000美元、50,000美元或100,000美元、对于30天至69岁的游客，最高投保额:最高150,000美元、最多可在抵达前365天购买
+    - 加拿大: 如果在抵达后购买，则有48小时的等待期*、最多365天的保障
+*例外:意外身体伤害和连续保险</t>
+  </si>
+  <si>
+    <t>1. 对于30天至85岁的游客，最高保额:高达15,000美元、25,000美元、50,000美元或100,000美元、对于30天至69岁的游客，最高保额:高达150,000美元、最多可购买365天抵达加拿大之前
+2. 如果在抵达后购买，48小时等待期
+    适用*、
+    最长365天承包
+*例外:意外身体伤害和连续保险</t>
+  </si>
+  <si>
+    <t>其他功能或要求</t>
   </si>
 </sst>
 </file>
@@ -56,12 +108,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,8 +134,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,23 +457,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CC607D-F4F6-114E-B9EB-BD485F1AC438}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="66.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
